--- a/ResultsTable.xlsx
+++ b/ResultsTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuenh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianyu/Desktop/Term Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCBBE95-322A-4177-AA15-D0C25E99B80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB421F-84BB-0B40-A8CA-04245ADA685B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1230" windowWidth="17300" windowHeight="8820" xr2:uid="{415D52D7-01AD-430E-890C-26BC6B021E60}"/>
+    <workbookView xWindow="1540" yWindow="1240" windowWidth="17300" windowHeight="14240" xr2:uid="{415D52D7-01AD-430E-890C-26BC6B021E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>model</t>
   </si>
@@ -70,18 +70,33 @@
   </si>
   <si>
     <t>Appendix</t>
+  </si>
+  <si>
+    <t>Random forest regressor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARIMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,22 +457,20 @@
   <dimension ref="D3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:13">
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -468,7 +481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:13">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:13">
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -511,29 +524,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:13">
       <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.359E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-2.84</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:13">
       <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.71399999999999997</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13">
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
@@ -544,7 +571,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:13">
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -552,7 +579,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:13">
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:13">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -592,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13">
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,7 +630,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:13">
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
@@ -614,7 +641,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:13">
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
@@ -626,6 +653,7 @@
       <c r="J16" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>